--- a/artifacts/current/docs/LP22-302-0_r3.xlsx
+++ b/artifacts/current/docs/LP22-302-0_r3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MT\projects\pcb-22-302 (scheda controllo compressore - Z190)\artifacts\current\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C76745-4554-486F-9152-92C812F1C455}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2BF219-2F74-48EB-9FA0-86F05118B8CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12210" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -405,12 +405,6 @@
   </si>
   <si>
     <t>J8</t>
-  </si>
-  <si>
-    <t>54548-1071</t>
-  </si>
-  <si>
-    <t>Connettore FFC, 10 vie, passo 0.5mm, angolo retto, SMD</t>
   </si>
   <si>
     <t>31</t>
@@ -1514,9 +1508,6 @@
     <t>- Prima emissione.</t>
   </si>
   <si>
-    <t>- Modificati i diodi D4, D5, D6, D7, D8, D9, D11, D13, D14, D21, D22, D23, D24, D25, D26, D27, D28 con part number SD05-01FTG, avente minor ingombro.</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C4, C31, C33, C37, C41, C42, C44, C45</t>
   </si>
   <si>
@@ -1595,10 +1586,21 @@
     <t>- Inseriti i resistori R78, R79 e R80
 - Inseriti i diodi D29, D30
 - Inserito il jumper J9
+- Modificato il connettore J8 con il part number 54548-1271
 - Modificato il condensatore C37 con il valore 1uF
 - Modificato il regolatore U2 con il part number LD1117DT33
 - Modificati gli optoisolatori U5, U7, U8, U9 con il part number TCMT1104
 - Modificati i transistor Q2, Q17 con il part number BSS84</t>
+  </si>
+  <si>
+    <t>54548-1271</t>
+  </si>
+  <si>
+    <t>Connettore FFC, 12 vie, passo 0.5mm, angolo retto, contatti in basso, SMD</t>
+  </si>
+  <si>
+    <t>- Modificati i diodi D4, D5, D6, D7, D8, D9, D11, D13, D14, D21, D22, D23, D24, D25, D26, D27, D28
+   con part number SD05-01FTG, avente minor ingombro.</t>
   </si>
 </sst>
 </file>
@@ -1981,6 +1983,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1993,11 +2001,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2012,12 +2020,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -2397,19 +2399,19 @@
     </row>
     <row r="2" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="B2" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -2440,22 +2442,22 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="A5" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -2488,26 +2490,26 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="17">
         <v>1</v>
@@ -2516,20 +2518,20 @@
         <v>44902</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
+        <v>479</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17">
         <v>2</v>
       </c>
@@ -2537,37 +2539,37 @@
         <v>44992</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-    </row>
-    <row r="11" spans="1:12" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <v>3</v>
       </c>
       <c r="C11" s="18">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+        <v>479</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2640,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -2754,7 +2756,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>30</v>
@@ -2945,7 +2947,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>66</v>
@@ -3014,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>78</v>
@@ -3268,871 +3270,871 @@
         <v>125</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>126</v>
+        <v>510</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>126</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>84</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="G41" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="G69" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="G71" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="G72" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="G74" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="F75" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E76" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="G76" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="G80" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="G82" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4158,7 @@
     <hyperlink ref="G32" r:id="rId17" xr:uid="{2E8F5C4C-F0BA-41A1-A249-BD548BB193C0}"/>
     <hyperlink ref="G33" r:id="rId18" xr:uid="{DE4985BB-34BA-4EB3-9C41-43E46CA6B9F0}"/>
     <hyperlink ref="G34" r:id="rId19" xr:uid="{01F4BDF0-000F-44B9-AE0D-BA51E081A85B}"/>
-    <hyperlink ref="G35" r:id="rId20" xr:uid="{9CCDF323-28D0-454E-923B-6F8DE63CFAFE}"/>
+    <hyperlink ref="G35" r:id="rId20" display="54548-1071" xr:uid="{9CCDF323-28D0-454E-923B-6F8DE63CFAFE}"/>
     <hyperlink ref="G38" r:id="rId21" xr:uid="{89539FDE-25DC-418C-B4A3-E62511F85BFB}"/>
     <hyperlink ref="G39" r:id="rId22" xr:uid="{B71236E2-3FD3-4ED5-A116-2A1EAA91934D}"/>
     <hyperlink ref="G41" r:id="rId23" xr:uid="{99EA8F6A-D387-4A7F-9106-80DC19274903}"/>
@@ -4208,42 +4210,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="G2" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -4258,7 +4260,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -4273,7 +4275,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -4288,7 +4290,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -4303,7 +4305,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -4318,7 +4320,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -4333,7 +4335,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -4348,7 +4350,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
@@ -4363,7 +4365,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
@@ -4378,7 +4380,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>18</v>
@@ -4393,7 +4395,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -4408,7 +4410,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>22</v>
@@ -4423,7 +4425,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
@@ -4438,7 +4440,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>22</v>
@@ -4453,7 +4455,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>22</v>
@@ -4468,7 +4470,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -4483,7 +4485,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>25</v>
@@ -4498,7 +4500,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
@@ -4513,7 +4515,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>25</v>
@@ -4528,7 +4530,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -4543,7 +4545,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
@@ -4558,7 +4560,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -4573,7 +4575,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
@@ -4588,7 +4590,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>22</v>
@@ -4603,7 +4605,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
@@ -4618,7 +4620,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>22</v>
@@ -4633,7 +4635,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>22</v>
@@ -4648,7 +4650,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
@@ -4663,7 +4665,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>22</v>
@@ -4678,7 +4680,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>14</v>
@@ -4693,7 +4695,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -4708,7 +4710,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
@@ -4723,7 +4725,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
@@ -4738,7 +4740,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>30</v>
@@ -4783,7 +4785,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>9</v>
@@ -4813,7 +4815,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
@@ -4828,7 +4830,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>22</v>
@@ -4843,7 +4845,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
@@ -4858,7 +4860,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>9</v>
@@ -4873,7 +4875,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>22</v>
@@ -4888,7 +4890,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -4903,7 +4905,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -4918,7 +4920,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>22</v>
@@ -4933,7 +4935,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>22</v>
@@ -4948,7 +4950,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>22</v>
@@ -4963,7 +4965,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
@@ -4978,7 +4980,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>14</v>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>30</v>
@@ -5008,7 +5010,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>22</v>
@@ -5023,7 +5025,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>62</v>
@@ -5042,7 +5044,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>66</v>
@@ -5061,7 +5063,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -5080,7 +5082,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>71</v>
@@ -5099,7 +5101,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>71</v>
@@ -5118,7 +5120,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>71</v>
@@ -5137,7 +5139,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>71</v>
@@ -5156,7 +5158,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
@@ -5175,7 +5177,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
@@ -5213,7 +5215,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>71</v>
@@ -5232,7 +5234,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>78</v>
@@ -5251,7 +5253,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>71</v>
@@ -5270,7 +5272,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>71</v>
@@ -5289,7 +5291,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>78</v>
@@ -5308,7 +5310,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>78</v>
@@ -5327,7 +5329,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>62</v>
@@ -5346,7 +5348,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>62</v>
@@ -5365,7 +5367,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>62</v>
@@ -5384,7 +5386,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>62</v>
@@ -5403,7 +5405,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>71</v>
@@ -5422,7 +5424,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>71</v>
@@ -5441,7 +5443,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>71</v>
@@ -5460,7 +5462,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>71</v>
@@ -5479,7 +5481,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>71</v>
@@ -5498,7 +5500,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>71</v>
@@ -5517,7 +5519,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>71</v>
@@ -5536,7 +5538,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>71</v>
@@ -5555,7 +5557,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>66</v>
@@ -5574,7 +5576,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>78</v>
@@ -5593,7 +5595,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>41</v>
@@ -5612,7 +5614,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>41</v>
@@ -5631,7 +5633,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>41</v>
@@ -5669,7 +5671,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>52</v>
@@ -5688,7 +5690,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>52</v>
@@ -5707,7 +5709,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>52</v>
@@ -5726,7 +5728,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>52</v>
@@ -5745,7 +5747,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>57</v>
@@ -5764,7 +5766,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>41</v>
@@ -5783,7 +5785,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>41</v>
@@ -5802,7 +5804,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>57</v>
@@ -5821,7 +5823,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>41</v>
@@ -5840,7 +5842,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>57</v>
@@ -5859,7 +5861,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>57</v>
@@ -5878,7 +5880,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>57</v>
@@ -5897,7 +5899,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>57</v>
@@ -5916,7 +5918,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>52</v>
@@ -5935,7 +5937,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>52</v>
@@ -5954,7 +5956,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>52</v>
@@ -5992,7 +5994,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>90</v>
@@ -6011,7 +6013,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>90</v>
@@ -6181,29 +6183,29 @@
         <v>125</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>126</v>
+        <v>510</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>127</v>
+        <v>511</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>126</v>
+        <v>510</v>
       </c>
       <c r="F116" s="2"/>
       <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="8"/>
@@ -6212,572 +6214,572 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="8"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F119" s="2"/>
       <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F121" s="2"/>
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F123" s="2"/>
       <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="8"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="E125" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="F125" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G125" s="8"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="E126" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="F126" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G126" s="8"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="E127" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="F127" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G127" s="8"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="E128" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>140</v>
-      </c>
       <c r="F128" s="20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G128" s="8"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="8"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="8"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="8"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="8"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F133" s="2"/>
       <c r="G133" s="8"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="8"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F135" s="2"/>
       <c r="G135" s="8"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="8"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F137" s="2"/>
       <c r="G137" s="8"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="8"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F139" s="2"/>
       <c r="G139" s="8"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="8"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F141" s="2"/>
       <c r="G141" s="8"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="8"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E143" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="8"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E144" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="8"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E145" s="8" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F145" s="2"/>
       <c r="G145" s="8"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="8"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="8"/>
@@ -6786,13 +6788,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="8"/>
@@ -6801,13 +6803,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="8"/>
@@ -6816,13 +6818,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="8"/>
@@ -6831,13 +6833,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="8"/>
@@ -6846,13 +6848,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="8"/>
@@ -6861,13 +6863,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="8"/>
@@ -6876,13 +6878,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="8"/>
@@ -6891,13 +6893,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="8"/>
@@ -6906,13 +6908,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="8"/>
@@ -6921,13 +6923,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="8"/>
@@ -6936,13 +6938,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="8"/>
@@ -6951,13 +6953,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="8"/>
@@ -6966,13 +6968,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="8"/>
@@ -6981,13 +6983,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="8"/>
@@ -6996,13 +6998,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="8"/>
@@ -7011,13 +7013,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="8"/>
@@ -7026,13 +7028,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="8"/>
@@ -7041,13 +7043,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="8"/>
@@ -7056,13 +7058,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="8"/>
@@ -7071,13 +7073,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="8"/>
@@ -7086,13 +7088,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="8"/>
@@ -7101,13 +7103,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="8"/>
@@ -7116,13 +7118,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="8"/>
@@ -7131,13 +7133,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="8"/>
@@ -7146,13 +7148,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="8"/>
@@ -7161,13 +7163,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="8"/>
@@ -7176,13 +7178,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="8"/>
@@ -7191,13 +7193,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="8"/>
@@ -7206,13 +7208,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="8"/>
@@ -7221,13 +7223,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="8"/>
@@ -7236,13 +7238,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="8"/>
@@ -7251,13 +7253,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="8"/>
@@ -7266,13 +7268,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="8"/>
@@ -7281,13 +7283,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="8"/>
@@ -7296,13 +7298,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="8"/>
@@ -7311,13 +7313,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="8"/>
@@ -7326,13 +7328,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="8"/>
@@ -7341,13 +7343,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="8"/>
@@ -7356,13 +7358,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="8"/>
@@ -7371,13 +7373,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C187" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="8"/>
@@ -7386,13 +7388,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="8"/>
@@ -7401,13 +7403,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="8"/>
@@ -7416,13 +7418,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="8"/>
@@ -7431,13 +7433,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="8"/>
@@ -7446,13 +7448,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="8"/>
@@ -7461,13 +7463,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" s="8"/>
@@ -7476,13 +7478,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="8"/>
@@ -7491,13 +7493,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="8"/>
@@ -7506,13 +7508,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="8"/>
@@ -7521,13 +7523,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="8"/>
@@ -7536,13 +7538,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="8"/>
@@ -7551,13 +7553,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="8"/>
@@ -7566,13 +7568,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="8"/>
@@ -7581,13 +7583,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="8"/>
@@ -7596,13 +7598,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="8"/>
@@ -7611,13 +7613,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="8"/>
@@ -7626,13 +7628,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="8"/>
@@ -7641,13 +7643,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="8"/>
@@ -7656,13 +7658,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="8"/>
@@ -7671,13 +7673,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="8"/>
@@ -7686,13 +7688,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="8"/>
@@ -7701,13 +7703,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="8"/>
@@ -7716,13 +7718,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="8"/>
@@ -7731,13 +7733,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="8"/>
@@ -7746,13 +7748,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="8"/>
@@ -7761,13 +7763,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="8"/>
@@ -7776,13 +7778,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="8"/>
@@ -7791,13 +7793,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="8"/>
@@ -7806,13 +7808,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="8"/>
@@ -7821,13 +7823,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="8"/>
@@ -7836,13 +7838,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="8"/>
@@ -7851,13 +7853,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="8"/>
@@ -7866,13 +7868,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="8"/>
@@ -7881,13 +7883,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="8"/>
@@ -7896,13 +7898,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="8"/>
@@ -7911,13 +7913,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="8"/>
@@ -7926,13 +7928,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="8"/>
@@ -7941,13 +7943,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="8"/>
@@ -7956,13 +7958,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="8"/>
@@ -7971,342 +7973,342 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C227" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E227" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="8"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="8"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C229" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C229" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E229" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="8"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C230" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="E230" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E230" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="8"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="8"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E232" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="8"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="8"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="8"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="8"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="8"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C237" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="E237" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="8"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C238" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D238" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="8"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="8"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="8"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="8"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="D242" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="8"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C243" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C243" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="E243" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="8"/>
     </row>
     <row r="244" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C244" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="D244" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C244" s="11" t="s">
+      <c r="E244" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="E244" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="F244" s="9"/>
       <c r="G244" s="12"/>
@@ -8348,10 +8350,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
